--- a/xlsx/美国体育_intext.xlsx
+++ b/xlsx/美国体育_intext.xlsx
@@ -15,1431 +15,1404 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
   <si>
     <t>美国体育</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AB%94%E8%82%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>美国种族及民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E7%A5%9E%E8%A9%B1</t>
+  </si>
+  <si>
+    <t>美洲原住民神话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F</t>
+  </si>
+  <si>
+    <t>美国饮食</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%BC%AB%E7%94%BB%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>美国漫画书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>美国国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
+  </si>
+  <si>
+    <t>国家纪念区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>我们信仰上帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9D%A1%E6%97%97_(%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%AD%8C)</t>
+  </si>
+  <si>
+    <t>星条旗 (美国国歌)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
+  </si>
+  <si>
+    <t>白头海鵰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>Template talk-美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>美式足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
+  </si>
+  <si>
+    <t>棒球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%90%83</t>
+  </si>
+  <si>
+    <t>冰球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%90%83</t>
+  </si>
+  <si>
+    <t>排球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%A4%AB%E7%90%83</t>
+  </si>
+  <si>
+    <t>高尔夫球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%90%83</t>
+  </si>
+  <si>
+    <t>网球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%BD%A1%E7%90%83</t>
+  </si>
+  <si>
+    <t>保龄球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>田径运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E4%B8%9A%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职业棒球大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>世界大赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
+  </si>
+  <si>
+    <t>南韩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E4%B8%9A%E7%AF%AE%E7%90%83%E8%81%94%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>美国职业篮球联赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国家美式足球联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%9B%83</t>
+  </si>
+  <si>
+    <t>超级杯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国家冰球联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%E6%9D%AF</t>
+  </si>
+  <si>
+    <t>斯坦利杯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>1994年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职业足球大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%A0%93%C2%B7%E7%95%B6%E5%A5%B4%E9%9B%B2</t>
+  </si>
+  <si>
+    <t>兰顿·当奴云</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E8%B4%9D%E5%85%8B%E6%B1%89%E5%A7%86</t>
+  </si>
+  <si>
+    <t>大卫·贝克汉姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>2006年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国国家足球队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E5%B8%8C</t>
+  </si>
+  <si>
+    <t>小布希</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1904%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1904年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF_(%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣路易斯 (密苏里州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1932%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1932年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1984年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
+  </si>
+  <si>
+    <t>洛杉矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1996年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>亚特兰大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1980年冬季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E5%BE%B7%E6%B9%96</t>
+  </si>
+  <si>
+    <t>普莱西德湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1960年冬季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%98%94%E8%B0%B7%E6%BB%91%E9%9B%AA%E6%B8%A1%E5%81%87%E8%83%9C%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>斯阔谷滑雪渡假胜地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2002年冬季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>盐湖城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美洲运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%8B%E7%96%BE%E4%BA%BA%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>残疾人奥运会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%AE%8A%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>特殊奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E5%A5%BD%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>友好运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6%E7%94%9F%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>大学生运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
+  </si>
+  <si>
+    <t>兰斯·阿姆斯特朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%A0%BC%C2%B7%E4%BC%8D%E5%85%B9</t>
+  </si>
+  <si>
+    <t>泰格·伍兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E9%98%BF%E5%8A%A0%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>安德烈·阿加西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%BA%B3%E6%96%AF%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>维纳斯·威廉姆斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9B%B7%E5%A8%9C%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞雷娜·威廉姆斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>季后赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国奥林匹克委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>反托拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD</t>
+  </si>
+  <si>
+    <t>广播</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86</t>
+  </si>
+  <si>
+    <t>有线电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E7%94%BB%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>体育画报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國文化</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美國歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>美国种族及民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E7%A5%9E%E8%A9%B1</t>
-  </si>
-  <si>
-    <t>美洲原住民神話</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F</t>
-  </si>
-  <si>
-    <t>美國飲食</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美國節日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美國宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89</t>
-  </si>
-  <si>
-    <t>美國建築</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>美國文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%BC%AB%E7%94%BB%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>美国漫画书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>美國音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AB%94%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美國體育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>美國媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>美國國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>美國國徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
-  </si>
-  <si>
-    <t>國家紀念區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>我们信仰上帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9D%A1%E6%97%97_(%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%AD%8C)</t>
-  </si>
-  <si>
-    <t>星条旗 (美国国歌)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
-  </si>
-  <si>
-    <t>白頭海鵰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>Template talk-美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>美式足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
-  </si>
-  <si>
-    <t>棒球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
-  </si>
-  <si>
-    <t>篮球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%90%83</t>
-  </si>
-  <si>
-    <t>冰球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%90%83</t>
-  </si>
-  <si>
-    <t>排球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
-  </si>
-  <si>
-    <t>游泳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%A4%AB%E7%90%83</t>
-  </si>
-  <si>
-    <t>高尔夫球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%90%83</t>
-  </si>
-  <si>
-    <t>网球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%BD%A1%E7%90%83</t>
-  </si>
-  <si>
-    <t>保齡球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>田徑運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E4%B8%9A%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美国职业棒球大联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>世界大賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
-  </si>
-  <si>
-    <t>南韓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E4%B8%9A%E7%AF%AE%E7%90%83%E8%81%94%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>美国职业篮球联赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>國家美式足球聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%9B%83</t>
-  </si>
-  <si>
-    <t>超級盃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>國家冰球聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%E6%9D%AF</t>
-  </si>
-  <si>
-    <t>斯坦利杯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>1994年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職業足球大聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%A0%93%C2%B7%E7%95%B6%E5%A5%B4%E9%9B%B2</t>
-  </si>
-  <si>
-    <t>蘭頓·當奴雲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E8%B4%9D%E5%85%8B%E6%B1%89%E5%A7%86</t>
-  </si>
-  <si>
-    <t>大卫·贝克汉姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>2006年世界杯足球赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国国家足球队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E5%B8%8C</t>
-  </si>
-  <si>
-    <t>小布希</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1904%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1904年夏季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF_(%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圣路易斯 (密苏里州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1932%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1932年夏季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1984年夏季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
-  </si>
-  <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1996年夏季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>亚特兰大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1980年冬季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E5%BE%B7%E6%B9%96</t>
-  </si>
-  <si>
-    <t>普萊西德湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1960年冬季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%98%94%E8%B0%B7%E6%BB%91%E9%9B%AA%E6%B8%A1%E5%81%87%E8%83%9C%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>斯阔谷滑雪渡假胜地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2002年冬季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>盐湖城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美洲运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%8B%E7%96%BE%E4%BA%BA%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>残疾人奥运会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%AE%8A%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>特殊奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E5%A5%BD%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>友好运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>世界運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6%E7%94%9F%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>大学生运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
-  </si>
-  <si>
-    <t>兰斯·阿姆斯特朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%A0%BC%C2%B7%E4%BC%8D%E5%85%B9</t>
-  </si>
-  <si>
-    <t>泰格·伍兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E9%98%BF%E5%8A%A0%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>安德烈·阿加西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%BA%B3%E6%96%AF%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>维纳斯·威廉姆斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9B%B7%E5%A8%9C%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞雷娜·威廉姆斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>季後賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國奧林匹克委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>反托拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD</t>
-  </si>
-  <si>
-    <t>广播</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86</t>
-  </si>
-  <si>
-    <t>有线电视</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E7%94%BB%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>体育画报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2219,7 +2192,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2480,7 +2453,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -2509,7 +2482,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -2538,7 +2511,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -2567,7 +2540,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -2596,7 +2569,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -2625,7 +2598,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -2654,7 +2627,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -2683,7 +2656,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -2712,7 +2685,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -2741,7 +2714,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -2799,7 +2772,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2857,7 +2830,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2973,7 +2946,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -3002,7 +2975,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -3031,7 +3004,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -3060,7 +3033,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -3118,7 +3091,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -3147,7 +3120,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -3437,7 +3410,7 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3466,7 +3439,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -3495,7 +3468,7 @@
         <v>118</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -3524,7 +3497,7 @@
         <v>120</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3553,7 +3526,7 @@
         <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3611,7 +3584,7 @@
         <v>126</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3640,7 +3613,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -4365,7 +4338,7 @@
         <v>178</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4394,7 +4367,7 @@
         <v>180</v>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4423,7 +4396,7 @@
         <v>182</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4478,10 +4451,10 @@
         <v>185</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4504,10 +4477,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -4533,13 +4506,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4562,10 +4535,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4591,10 +4564,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4620,10 +4593,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4649,10 +4622,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4678,10 +4651,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4707,10 +4680,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4736,10 +4709,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4765,10 +4738,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4794,10 +4767,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4823,10 +4796,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4852,10 +4825,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4881,10 +4854,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4910,10 +4883,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4939,10 +4912,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4968,10 +4941,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4997,13 +4970,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5026,13 +4999,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -5055,13 +5028,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5084,13 +5057,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5113,13 +5086,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5142,10 +5115,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5171,10 +5144,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5200,10 +5173,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5229,10 +5202,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5258,10 +5231,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5287,10 +5260,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5316,10 +5289,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5345,13 +5318,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5374,13 +5347,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5403,10 +5376,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5432,10 +5405,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5461,10 +5434,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5490,10 +5463,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5519,10 +5492,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5548,10 +5521,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5577,10 +5550,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5606,10 +5579,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5635,10 +5608,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5664,10 +5637,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5693,10 +5666,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5722,10 +5695,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5751,10 +5724,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5780,13 +5753,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5809,13 +5782,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5838,10 +5811,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5867,10 +5840,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5896,10 +5869,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5925,10 +5898,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5954,10 +5927,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5983,10 +5956,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6012,10 +5985,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6041,10 +6014,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6070,13 +6043,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6099,13 +6072,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6128,10 +6101,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6157,13 +6130,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6186,13 +6159,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6215,13 +6188,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6244,10 +6217,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6273,10 +6246,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6302,10 +6275,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6331,10 +6304,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6360,10 +6333,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6389,10 +6362,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6418,10 +6391,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6447,10 +6420,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6476,10 +6449,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6505,10 +6478,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6534,13 +6507,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6563,13 +6536,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6592,10 +6565,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6621,10 +6594,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6650,10 +6623,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6679,10 +6652,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6708,10 +6681,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6737,10 +6710,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6766,10 +6739,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6795,10 +6768,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6824,10 +6797,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6853,10 +6826,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6882,10 +6855,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6911,10 +6884,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6940,10 +6913,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6969,10 +6942,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6998,10 +6971,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7027,10 +7000,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7056,13 +7029,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7085,13 +7058,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7114,10 +7087,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7143,10 +7116,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7172,10 +7145,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7201,10 +7174,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7230,10 +7203,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7259,10 +7232,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7288,10 +7261,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7317,10 +7290,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7346,10 +7319,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7375,10 +7348,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7404,10 +7377,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7433,10 +7406,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7462,13 +7435,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7491,13 +7464,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7520,13 +7493,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7549,13 +7522,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7578,13 +7551,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -7607,13 +7580,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7636,10 +7609,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7665,10 +7638,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7694,10 +7667,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7723,10 +7696,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7752,13 +7725,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -7781,13 +7754,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -7810,13 +7783,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="G208" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -7839,10 +7812,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7868,10 +7841,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7897,10 +7870,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7926,10 +7899,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7955,10 +7928,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7984,13 +7957,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>3</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8013,13 +7986,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>187</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="G215" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8042,10 +8015,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8071,10 +8044,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8100,10 +8073,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8129,10 +8102,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>22</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8158,10 +8131,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8187,10 +8160,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8216,13 +8189,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8245,13 +8218,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8274,10 +8247,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8303,10 +8276,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8332,13 +8305,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>34</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8361,13 +8334,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G227" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -8390,10 +8363,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>33</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8419,10 +8392,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8448,13 +8421,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8477,13 +8450,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8506,10 +8479,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8535,10 +8508,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8564,10 +8537,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8593,10 +8566,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8622,10 +8595,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8651,10 +8624,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8680,13 +8653,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -8709,13 +8682,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -8738,10 +8711,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8767,10 +8740,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8796,18 +8769,47 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
       </c>
       <c r="I242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>242</v>
+      </c>
+      <c r="E243" t="s">
+        <v>463</v>
+      </c>
+      <c r="F243" t="s">
+        <v>465</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="s">
+        <v>4</v>
+      </c>
+      <c r="I243" t="n">
         <v>3</v>
       </c>
     </row>
